--- a/StructureDefinition-ext-R5-Account.balance.xlsx
+++ b/StructureDefinition-ext-R5-Account.balance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Account.balance` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Account.balance` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.balance` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Account</t>
   </si>
   <si>
     <t>ID</t>
@@ -341,7 +341,7 @@
   </si>
   <si>
     <t>Element `Account.balance.aggregate` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.aggregate` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.balance.aggregate` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:aggregate.id</t>
@@ -424,7 +424,7 @@
   </si>
   <si>
     <t>Element `Account.balance.term` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.term` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.balance.term` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:term.id</t>
@@ -452,7 +452,7 @@
   </si>
   <si>
     <t>Element `Account.balance.estimate` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.estimate` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.balance.estimate` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:estimate.id</t>
@@ -484,7 +484,7 @@
   </si>
   <si>
     <t>Element `Account.balance.amount` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.amount` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.balance.amount` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:amount.id</t>
@@ -850,7 +850,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="118.8359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="123.75" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Account.balance.xlsx
+++ b/StructureDefinition-ext-R5-Account.balance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Account.balance` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Account.balance` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.balance` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -341,7 +341,7 @@
   </si>
   <si>
     <t>Element `Account.balance.aggregate` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.aggregate` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.balance.aggregate` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:aggregate.id</t>
@@ -388,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance.aggregate</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -424,7 +427,7 @@
   </si>
   <si>
     <t>Element `Account.balance.term` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.term` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.balance.term` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:term.id</t>
@@ -436,6 +439,9 @@
     <t>Extension.extension:term.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance.term</t>
+  </si>
+  <si>
     <t>Extension.extension:term.value[x]</t>
   </si>
   <si>
@@ -452,7 +458,7 @@
   </si>
   <si>
     <t>Element `Account.balance.estimate` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.estimate` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.balance.estimate` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:estimate.id</t>
@@ -462,6 +468,9 @@
   </si>
   <si>
     <t>Extension.extension:estimate.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance.estimate</t>
   </si>
   <si>
     <t>Extension.extension:estimate.value[x]</t>
@@ -484,7 +493,7 @@
   </si>
   <si>
     <t>Element `Account.balance.amount` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.amount` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.balance.amount` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:amount.id</t>
@@ -494,6 +503,9 @@
   </si>
   <si>
     <t>Extension.extension:amount.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance.amount</t>
   </si>
   <si>
     <t>Extension.extension:amount.value[x]</t>
@@ -850,7 +862,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="123.75" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="118.8359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1656,7 +1668,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1698,7 +1710,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1713,15 +1725,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1744,7 +1756,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1801,7 +1813,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1813,21 +1825,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1852,14 +1864,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1928,7 +1940,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2031,7 +2043,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2136,7 +2148,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2179,7 +2191,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2221,7 +2233,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2236,15 +2248,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2267,13 +2279,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2324,7 +2336,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2336,21 +2348,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2375,14 +2387,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2451,7 +2463,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2554,7 +2566,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2659,7 +2671,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2702,7 +2714,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2744,7 +2756,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2759,15 +2771,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2790,13 +2802,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2847,7 +2859,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2859,21 +2871,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2898,14 +2910,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2974,7 +2986,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3077,7 +3089,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3182,7 +3194,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3267,7 +3279,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3282,15 +3294,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3313,13 +3325,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3370,7 +3382,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3382,18 +3394,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3475,7 +3487,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
@@ -3490,15 +3502,15 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3521,13 +3533,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3578,7 +3590,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3590,10 +3602,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Account.balance.xlsx
+++ b/StructureDefinition-ext-R5-Account.balance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-Account.balance.xlsx
+++ b/StructureDefinition-ext-R5-Account.balance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>Who is expected to pay this part of the balance.</t>
   </si>
   <si>
-    <t>Element `Account.balance.aggregate` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.aggregate` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.balance.aggregate` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:aggregate.id</t>
@@ -388,9 +387,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance.aggregate</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -407,6 +403,15 @@
 </t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Indicates the balance was outstanding at the given age.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-account-aggregate-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -426,8 +431,7 @@
     <t>The term of the account balances - The balance value is the amount that was outstanding for this age.</t>
   </si>
   <si>
-    <t>Element `Account.balance.term` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.term` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.balance.term` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:term.id</t>
@@ -439,12 +443,12 @@
     <t>Extension.extension:term.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance.term</t>
-  </si>
-  <si>
     <t>Extension.extension:term.value[x]</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-account-balance-term-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:estimate</t>
   </si>
   <si>
@@ -457,8 +461,7 @@
     <t>The amount is only an estimated value - this is likely common for `current` term balances, but not with known terms (that were generated by a backend process).</t>
   </si>
   <si>
-    <t>Element `Account.balance.estimate` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.estimate` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.balance.estimate` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:estimate.id</t>
@@ -468,9 +471,6 @@
   </si>
   <si>
     <t>Extension.extension:estimate.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance.estimate</t>
   </si>
   <si>
     <t>Extension.extension:estimate.value[x]</t>
@@ -492,8 +492,7 @@
     <t>The actual balance value calculated for the age defined in the term property.</t>
   </si>
   <si>
-    <t>Element `Account.balance.amount` is part of an existing definition because parent element `Account.balance` requires a cross-version extension.
-Element `Account.balance.amount` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.balance.amount` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:amount.id</t>
@@ -503,9 +502,6 @@
   </si>
   <si>
     <t>Extension.extension:amount.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance.amount</t>
   </si>
   <si>
     <t>Extension.extension:amount.value[x]</t>
@@ -862,7 +858,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="118.8359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="117.765625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -872,8 +868,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.2890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.47265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1668,72 +1664,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1756,7 +1752,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1789,13 +1785,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1813,7 +1809,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1825,21 +1821,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1864,14 +1860,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1940,7 +1936,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2043,7 +2039,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2148,7 +2144,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2191,7 +2187,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2233,30 +2229,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2279,13 +2275,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2312,13 +2308,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2336,7 +2332,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2348,21 +2344,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2387,14 +2383,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2463,7 +2459,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2566,7 +2562,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2671,7 +2667,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2714,7 +2710,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2756,30 +2752,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2802,13 +2798,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2859,7 +2855,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2871,21 +2867,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2910,14 +2906,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2986,7 +2982,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3089,7 +3085,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3194,7 +3190,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3237,7 +3233,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3279,22 +3275,22 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -3302,7 +3298,7 @@
         <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3328,10 +3324,10 @@
         <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3382,7 +3378,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3394,18 +3390,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3487,30 +3483,30 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3590,7 +3586,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3602,10 +3598,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
